--- a/resource/data/standard/13.05.16/1/measurement-1.xlsx
+++ b/resource/data/standard/13.05.16/1/measurement-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,7 +61,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,15 +159,14 @@
   </sheetPr>
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O753" activeCellId="0" sqref="O753"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4273,20 +4271,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4301,20 +4300,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
